--- a/most.xlsx
+++ b/most.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailkmuttacth-my.sharepoint.com/personal/tipok_kitko_kmutt_ac_th/Documents/Sync form Mister0ne PC/University Work/Master degree/Year 1/Year 1-1/CVE660/Soil Profile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{B72E7179-0F32-ED46-A6F4-B098A5CB0C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C6D20D-22D8-6447-B38D-FF1BD6F7EB14}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{B72E7179-0F32-ED46-A6F4-B098A5CB0C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A4D79F-CE76-7944-B3B2-DFE97331B571}"/>
   <bookViews>
     <workbookView xWindow="10460" yWindow="2160" windowWidth="24480" windowHeight="21320" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Depth, m</t>
   </si>
@@ -107,6 +107,9 @@
     <t>SS-11</t>
   </si>
   <si>
+    <t>SS-12</t>
+  </si>
+  <si>
     <t>SS-14</t>
   </si>
   <si>
@@ -149,10 +152,16 @@
     <t>SS-09</t>
   </si>
   <si>
-    <t>DB-12</t>
-  </si>
-  <si>
-    <t>DB-13</t>
+    <t>Granite</t>
+  </si>
+  <si>
+    <t>Decomposed Granite</t>
+  </si>
+  <si>
+    <t>SC/Decomposed Granite</t>
+  </si>
+  <si>
+    <t>(SM/Decomposed Granite)</t>
   </si>
   <si>
     <t>DB-19</t>
@@ -541,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="259" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -626,7 +635,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -647,7 +656,7 @@
         <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4" s="1">
         <v>13</v>
@@ -655,7 +664,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
         <v>1.5</v>
@@ -664,7 +673,7 @@
         <v>1.95</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N5" s="1">
         <v>10</v>
@@ -672,7 +681,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -684,7 +693,7 @@
         <v>6.5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="1">
         <v>11</v>
@@ -692,7 +701,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -701,7 +710,7 @@
         <v>3.45</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N7" s="1">
         <v>8</v>
@@ -709,7 +718,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>4.5</v>
@@ -727,7 +736,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1">
         <v>22.5</v>
@@ -741,7 +750,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1">
         <v>6.25</v>
@@ -759,7 +768,7 @@
         <v>21.2</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1">
         <v>20</v>
@@ -779,7 +788,7 @@
         <v>14.2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1">
         <v>22.5</v>
@@ -787,7 +796,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
         <v>6.5</v>
@@ -814,7 +823,7 @@
         <v>9.4</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" s="1">
         <v>22.5</v>
@@ -822,7 +831,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1">
         <v>7.5</v>
@@ -840,7 +849,7 @@
         <v>15</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -854,7 +863,7 @@
         <v>9.1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -868,12 +877,12 @@
         <v>9.32</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>9.32</v>
@@ -882,12 +891,12 @@
         <v>10.51</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>10.51</v>
@@ -896,12 +905,12 @@
         <v>12</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
         <v>12</v>
@@ -910,12 +919,12 @@
         <v>12.13</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1">
         <v>13.5</v>
@@ -942,12 +951,12 @@
         <v>10.3</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1">
         <v>15</v>
@@ -956,12 +965,12 @@
         <v>15.15</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
         <v>16.5</v>
@@ -970,12 +979,12 @@
         <v>16.52</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
         <v>17</v>
@@ -984,12 +993,12 @@
         <v>17</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1">
         <v>17</v>
@@ -998,12 +1007,12 @@
         <v>17.899999999999999</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1">
         <v>17.899999999999999</v>
@@ -1012,12 +1021,12 @@
         <v>18.32</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1">
         <v>18.32</v>
@@ -1026,12 +1035,12 @@
         <v>19.350000000000001</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1">
         <v>19.350000000000001</v>
@@ -1040,7 +1049,7 @@
         <v>20</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/most.xlsx
+++ b/most.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailkmuttacth-my.sharepoint.com/personal/tipok_kitko_kmutt_ac_th/Documents/Sync form Mister0ne PC/University Work/Master degree/Year 1/Year 1-1/CVE660/Soil Profile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{B72E7179-0F32-ED46-A6F4-B098A5CB0C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A4D79F-CE76-7944-B3B2-DFE97331B571}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{B72E7179-0F32-ED46-A6F4-B098A5CB0C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F1DC5EB-CDAF-4447-A8E4-28E0861471E6}"/>
   <bookViews>
     <workbookView xWindow="10460" yWindow="2160" windowWidth="24480" windowHeight="21320" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Depth, m</t>
   </si>
@@ -95,12 +95,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>ST-06</t>
-  </si>
-  <si>
-    <t>ST-07</t>
-  </si>
-  <si>
     <t>SS-10</t>
   </si>
   <si>
@@ -110,6 +104,9 @@
     <t>SS-12</t>
   </si>
   <si>
+    <t>SS-13</t>
+  </si>
+  <si>
     <t>SS-14</t>
   </si>
   <si>
@@ -128,6 +125,18 @@
     <t>SS-18</t>
   </si>
   <si>
+    <t>SS-19</t>
+  </si>
+  <si>
+    <t>SS-20</t>
+  </si>
+  <si>
+    <t>SS-21</t>
+  </si>
+  <si>
+    <t>SS-22</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
@@ -164,26 +173,20 @@
     <t>(SM/Decomposed Granite)</t>
   </si>
   <si>
-    <t>DB-19</t>
-  </si>
-  <si>
-    <t>DB-20</t>
-  </si>
-  <si>
-    <t>DB-21</t>
-  </si>
-  <si>
-    <t>DB-22</t>
-  </si>
-  <si>
     <t>6.00</t>
+  </si>
+  <si>
+    <t>SS-06</t>
+  </si>
+  <si>
+    <t>SS-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +198,12 @@
       <sz val="10"/>
       <name val="MS Sans Serif"/>
       <charset val="222"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -550,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="259" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -635,7 +644,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -656,7 +665,7 @@
         <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" s="1">
         <v>13</v>
@@ -664,7 +673,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>1.5</v>
@@ -673,7 +682,7 @@
         <v>1.95</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="1">
         <v>10</v>
@@ -681,7 +690,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -693,7 +702,7 @@
         <v>6.5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N6" s="1">
         <v>11</v>
@@ -701,7 +710,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -710,7 +719,7 @@
         <v>3.45</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N7" s="1">
         <v>8</v>
@@ -718,7 +727,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
         <v>4.5</v>
@@ -736,7 +745,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L8" s="1">
         <v>22.5</v>
@@ -747,10 +756,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1">
         <v>6.25</v>
@@ -768,7 +777,7 @@
         <v>21.2</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L9" s="1">
         <v>20</v>
@@ -776,7 +785,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1">
         <v>6.25</v>
@@ -788,7 +797,7 @@
         <v>14.2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L10" s="1">
         <v>22.5</v>
@@ -796,7 +805,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
         <v>6.5</v>
@@ -823,7 +832,7 @@
         <v>9.4</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L11" s="1">
         <v>22.5</v>
@@ -831,7 +840,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1">
         <v>7.5</v>
@@ -849,12 +858,12 @@
         <v>15</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>9</v>
@@ -863,12 +872,12 @@
         <v>9.1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>9.32</v>
@@ -877,12 +886,12 @@
         <v>9.32</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>9.32</v>
@@ -891,12 +900,12 @@
         <v>10.51</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>10.51</v>
@@ -905,12 +914,12 @@
         <v>12</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>12</v>
@@ -919,12 +928,12 @@
         <v>12.13</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>13.5</v>
@@ -951,12 +960,12 @@
         <v>10.3</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <v>15</v>
@@ -965,12 +974,12 @@
         <v>15.15</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
         <v>16.5</v>
@@ -979,12 +988,12 @@
         <v>16.52</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
         <v>17</v>
@@ -993,12 +1002,12 @@
         <v>17</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
         <v>17</v>
@@ -1007,12 +1016,12 @@
         <v>17.899999999999999</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
         <v>17.899999999999999</v>
@@ -1021,12 +1030,12 @@
         <v>18.32</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>18.32</v>
@@ -1035,12 +1044,12 @@
         <v>19.350000000000001</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>19.350000000000001</v>
@@ -1049,7 +1058,7 @@
         <v>20</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1060,6 +1069,7 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="F2:G2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/most.xlsx
+++ b/most.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailkmuttacth-my.sharepoint.com/personal/tipok_kitko_kmutt_ac_th/Documents/Sync form Mister0ne PC/University Work/Master degree/Year 1/Year 1-1/CVE660/Soil Profile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{B72E7179-0F32-ED46-A6F4-B098A5CB0C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F1DC5EB-CDAF-4447-A8E4-28E0861471E6}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{B72E7179-0F32-ED46-A6F4-B098A5CB0C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F337B81-6A45-5948-9F10-24052EEB553A}"/>
   <bookViews>
     <workbookView xWindow="10460" yWindow="2160" windowWidth="24480" windowHeight="21320" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Depth, m</t>
   </si>
@@ -159,18 +159,6 @@
   </si>
   <si>
     <t>SS-09</t>
-  </si>
-  <si>
-    <t>Granite</t>
-  </si>
-  <si>
-    <t>Decomposed Granite</t>
-  </si>
-  <si>
-    <t>SC/Decomposed Granite</t>
-  </si>
-  <si>
-    <t>(SM/Decomposed Granite)</t>
   </si>
   <si>
     <t>6.00</t>
@@ -560,7 +548,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -681,6 +669,9 @@
       <c r="C5" s="1">
         <v>1.95</v>
       </c>
+      <c r="E5" s="1">
+        <v>3.8</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
@@ -701,6 +692,9 @@
       <c r="D6" s="1">
         <v>6.5</v>
       </c>
+      <c r="E6" s="1">
+        <v>3.8</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>27</v>
       </c>
@@ -718,6 +712,9 @@
       <c r="C7" s="1">
         <v>3.45</v>
       </c>
+      <c r="E7" s="1">
+        <v>3.8</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>33</v>
       </c>
@@ -738,6 +735,9 @@
       <c r="D8" s="1">
         <v>12.3</v>
       </c>
+      <c r="E8" s="1">
+        <v>3.8</v>
+      </c>
       <c r="F8" s="1">
         <v>77</v>
       </c>
@@ -756,10 +756,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1">
         <v>6.25</v>
@@ -767,6 +767,9 @@
       <c r="D9" s="1">
         <v>11.3</v>
       </c>
+      <c r="E9" s="1">
+        <v>3.8</v>
+      </c>
       <c r="H9" s="1">
         <v>41</v>
       </c>
@@ -785,7 +788,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>6.25</v>
@@ -795,6 +798,9 @@
       </c>
       <c r="D10" s="1">
         <v>14.2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.8</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>33</v>
@@ -816,6 +822,9 @@
       <c r="D11" s="1">
         <v>9.8000000000000007</v>
       </c>
+      <c r="E11" s="1">
+        <v>3.8</v>
+      </c>
       <c r="F11" s="1">
         <v>48</v>
       </c>
@@ -851,6 +860,9 @@
       <c r="D12" s="1">
         <v>6.6</v>
       </c>
+      <c r="E12" s="1">
+        <v>3.8</v>
+      </c>
       <c r="F12" s="1">
         <v>33</v>
       </c>
@@ -871,6 +883,9 @@
       <c r="C13" s="1">
         <v>9.1</v>
       </c>
+      <c r="E13" s="1">
+        <v>3.8</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>27</v>
       </c>
@@ -885,6 +900,9 @@
       <c r="C14" s="1">
         <v>9.32</v>
       </c>
+      <c r="E14" s="1">
+        <v>3.8</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>33</v>
       </c>
@@ -899,8 +917,8 @@
       <c r="C15" s="1">
         <v>10.51</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>41</v>
+      <c r="E15" s="1">
+        <v>3.8</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -913,11 +931,11 @@
       <c r="C16" s="1">
         <v>12</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="E16" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -927,11 +945,11 @@
       <c r="C17" s="1">
         <v>12.13</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="E17" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -944,6 +962,9 @@
       <c r="D18" s="1">
         <v>10.199999999999999</v>
       </c>
+      <c r="E18" s="1">
+        <v>3.8</v>
+      </c>
       <c r="F18" s="1">
         <v>30</v>
       </c>
@@ -959,11 +980,8 @@
       <c r="J18" s="1">
         <v>10.3</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -973,11 +991,11 @@
       <c r="C19" s="1">
         <v>15.15</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="E19" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -987,11 +1005,11 @@
       <c r="C20" s="1">
         <v>16.52</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="E20" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1001,11 +1019,11 @@
       <c r="C21" s="1">
         <v>17</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="E21" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1015,11 +1033,11 @@
       <c r="C22" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="E22" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1029,11 +1047,11 @@
       <c r="C23" s="1">
         <v>18.32</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="E23" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1043,11 +1061,11 @@
       <c r="C24" s="1">
         <v>19.350000000000001</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="E24" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1057,8 +1075,8 @@
       <c r="C25" s="1">
         <v>20</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>41</v>
+      <c r="E25" s="1">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
